--- a/_CIPW/CIPW/1_normalized_QAPF_count.xlsx
+++ b/_CIPW/CIPW/1_normalized_QAPF_count.xlsx
@@ -380,68 +380,68 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3783</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>quartz monzonite</t>
+          <t>granodiorite</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>549</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>quartz syenite</t>
+          <t>monzodiorite monzogabbro</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>monzonite</t>
+          <t>syeno granite</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>quartz monzodiorite
-quartz monzogabbro</t>
+          <t>tonalite</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -457,31 +457,33 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>syenite</t>
+          <t>quartz diorite
+quartz gabbro
+quartz anorthosite</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>monzonite</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>monzodiorite monzogabbro</t>
+          <t>diorite gabbro anorthosite</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/_CIPW/CIPW/1_normalized_QAPF_count.xlsx
+++ b/_CIPW/CIPW/1_normalized_QAPF_count.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3058</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>908</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5">
@@ -411,27 +411,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>monzodiorite monzogabbro</t>
+          <t>syeno granite</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzodiorite monzogabbro</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -441,49 +441,59 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>quartz-rich granitoid</t>
+          <t>monzonite</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>quartz-rich granitoid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>quartz diorite
 quartz gabbro
 quartz anorthosite</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>monzonite</t>
-        </is>
-      </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>quartz syenite</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>diorite gabbro anorthosite</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2</v>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/_CIPW/CIPW/1_normalized_QAPF_count.xlsx
+++ b/_CIPW/CIPW/1_normalized_QAPF_count.xlsx
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3298</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -479,7 +479,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>quartz syenite</t>
+          <t>diorite gabbro anorthosite</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -489,7 +489,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>diorite gabbro anorthosite</t>
+          <t>quartz syenite</t>
         </is>
       </c>
       <c r="B13" t="n">
